--- a/TS South GM Report/validation/Fact GM RBMI.xlsx
+++ b/TS South GM Report/validation/Fact GM RBMI.xlsx
@@ -7604,8 +7604,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D3C7EDFE87261B4B87D9627355768BB2" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="636dc11e3cc511378a2ba648f39b7634">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="244243ab-c620-48dd-a2cf-69403afe9096" xmlns:ns3="bec6380b-26a7-479a-991d-40214ad6bcb4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f9df057114afd9cdc3ec547bc9fad700" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D3C7EDFE87261B4B87D9627355768BB2" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96e503e622aa86de5cd16e4c4673c2fa">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="244243ab-c620-48dd-a2cf-69403afe9096" xmlns:ns3="bec6380b-26a7-479a-991d-40214ad6bcb4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="965829eea7c37a50b82fdd19005f37b4" ns2:_="" ns3:_="">
     <xsd:import namespace="244243ab-c620-48dd-a2cf-69403afe9096"/>
     <xsd:import namespace="bec6380b-26a7-479a-991d-40214ad6bcb4"/>
     <xsd:element name="properties">
@@ -7624,6 +7624,9 @@
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -7671,6 +7674,21 @@
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="19" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -7814,6 +7832,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="bec6380b-26a7-479a-991d-40214ad6bcb4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="244243ab-c620-48dd-a2cf-69403afe9096">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3704B6F6-B979-473A-9E60-7B6B6171380F}">
   <ds:schemaRefs>
@@ -7823,5 +7852,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38254316-8E17-4707-BEE1-1DE952639750}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31B26D32-304E-4AA6-B64D-14AEB21BE029}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BAC71E8-FAF0-4C37-98F6-A35227CA5D76}"/>
 </file>